--- a/input/data/LoginData.xlsx
+++ b/input/data/LoginData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2445" windowWidth="19320" windowHeight="5610" activeTab="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="45">
   <si>
     <t>Regression Test</t>
   </si>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -296,7 +296,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -326,8 +326,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -466,7 +464,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -501,7 +498,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -677,7 +673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -699,63 +695,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="2"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="2"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="38.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="3"/>
@@ -767,16 +763,16 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="27">
+      <c r="B5" s="31"/>
+      <c r="C5" s="25">
         <v>0</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25">
         <v>0</v>
       </c>
       <c r="G5" s="3"/>
@@ -788,14 +784,14 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27">
+      <c r="B6" s="31"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25">
         <v>0</v>
       </c>
       <c r="G6" s="3"/>
@@ -805,10 +801,10 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -820,12 +816,12 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="31" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="4"/>
@@ -835,12 +831,12 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="4"/>
@@ -850,11 +846,11 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="30" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
@@ -890,7 +886,7 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -902,12 +898,12 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="30">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -919,174 +915,174 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="9"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="26" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="12"/>
@@ -1094,8 +1090,8 @@
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1111,11 +1107,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H7" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1126,150 +1122,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13">
-        <v>123456</v>
-      </c>
-      <c r="D3" s="17">
-        <v>123456</v>
-      </c>
-      <c r="E3" s="17">
-        <v>123456</v>
-      </c>
-      <c r="F3" s="17">
-        <v>123456</v>
-      </c>
-      <c r="G3" s="17">
-        <v>123456</v>
-      </c>
-      <c r="H3" s="17">
-        <v>123456</v>
+      <c r="C3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1278,7 +1274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1292,96 +1288,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1389,11 +1385,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C7" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1406,96 +1402,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
